--- a/docs/excel/TRecharge.xlsx
+++ b/docs/excel/TRecharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="255" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
+    <workbookView xWindow="165" yWindow="645" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TRecharge" sheetId="1" r:id="rId1"/>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>128</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,14 +591,6 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
         <v>648</v>
       </c>
     </row>

--- a/docs/excel/TRecharge.xlsx
+++ b/docs/excel/TRecharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="645" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
+    <workbookView xWindow="165" yWindow="180" windowWidth="28185" windowHeight="12045" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TRecharge" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>TableName: "TRecharge" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,81 +529,114 @@
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="str">
+        <f>B5&amp;"元"</f>
+        <v>6元</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C10" si="0">B6&amp;"元"</f>
+        <v>30元</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>98元</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>128元</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>348元</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>648</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>648元</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TRecharge.xlsx
+++ b/docs/excel/TRecharge.xlsx
@@ -521,12 +521,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -575,8 +576,8 @@
         <v>6</v>
       </c>
       <c r="C5" t="str">
-        <f>B5&amp;"元"</f>
-        <v>6元</v>
+        <f>B5*200&amp;"金币"</f>
+        <v>1200金币</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,8 +588,8 @@
         <v>30</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:C10" si="0">B6&amp;"元"</f>
-        <v>30元</v>
+        <f t="shared" ref="C6:C10" si="0">B6*200&amp;"金币"</f>
+        <v>6000金币</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -600,7 +601,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>98元</v>
+        <v>19600金币</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -612,7 +613,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>128元</v>
+        <v>25600金币</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,7 +625,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>348元</v>
+        <v>69600金币</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,7 +637,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>648元</v>
+        <v>129600金币</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TRecharge.xlsx
+++ b/docs/excel/TRecharge.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,8 +576,8 @@
         <v>6</v>
       </c>
       <c r="C5" t="str">
-        <f>B5*200&amp;"金币"</f>
-        <v>1200金币</v>
+        <f>B5&amp;"元"</f>
+        <v>6元</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -588,8 +588,8 @@
         <v>30</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:C10" si="0">B6*200&amp;"金币"</f>
-        <v>6000金币</v>
+        <f t="shared" ref="C6:C10" si="0">B6&amp;"元"</f>
+        <v>30元</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>19600金币</v>
+        <v>98元</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>25600金币</v>
+        <v>128元</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>69600金币</v>
+        <v>348元</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>129600金币</v>
+        <v>648元</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TRecharge.xlsx
+++ b/docs/excel/TRecharge.xlsx
@@ -71,10 +71,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,10 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,24 +532,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -559,13 +559,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
